--- a/data/trans_camb/P12C1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12C1_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,50 +541,68 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>Mz2/M5</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>Mz2/M5</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>17,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>19,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>18,57</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,03</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17,94</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 3,5</t>
+          <t>2,6; 22,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 5,51</t>
+          <t>-6,81; 18,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 0,81</t>
+          <t>7,35; 29,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 2,82</t>
+          <t>11,45; 29,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 0,82</t>
+          <t>-12,53; 10,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 2,3</t>
+          <t>9,82; 28,98</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 22,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 10,68</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10,53; 25,75</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,28%</t>
+          <t>176,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,94%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-38,66%</t>
+          <t>269,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,42%</t>
+          <t>217,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-33,86%</t>
+          <t>-2,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,05%</t>
+          <t>190,9%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>200,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>224,44%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-77,65; 78,48</t>
+          <t>4,22; 633,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-74,23; 119,2</t>
+          <t>-30,19; 138,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,87; 13,12</t>
+          <t>52,91; 936,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,28; 36,97</t>
+          <t>87,53; 502,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,84; 10,84</t>
+          <t>-36,41; 43,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,25; 33,43</t>
+          <t>64,59; 463,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>90,47; 391,11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-23,62; 54,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>97,93; 503,59</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>51,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>45,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>33,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-15,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>33,86</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43,01</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-10,19</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39,86</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 0,78</t>
+          <t>40,4; 63,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 2,25</t>
+          <t>-21,6; 7,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 19,3</t>
+          <t>32,94; 56,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 4,09</t>
+          <t>24,79; 42,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 7,97</t>
+          <t>-25,6; -5,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 2,03</t>
+          <t>22,42; 43,9</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34,0; 51,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-19,69; -1,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30,19; 47,56</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-40,15%</t>
+          <t>600,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-38,53%</t>
+          <t>-9,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>538,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-15,68%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>-19,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,84%</t>
+          <t>101,32%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>155,33%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-14,41%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>192,95%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,3; 13,47</t>
+          <t>351,4; 1184,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,2; 26,98</t>
+          <t>-32,99; 14,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 56,72</t>
+          <t>249,72; 1318,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 11,22</t>
+          <t>45,08; 96,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 35,09</t>
+          <t>-29,51; -7,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 8,88</t>
+          <t>52,98; 159,14</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>110,98; 215,12</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-25,95; -2,13</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>118,62; 277,88</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>50,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>46,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>37,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>33,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44,03</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-4,73</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40,11</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 3,48</t>
+          <t>41,2; 58,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 6,81</t>
+          <t>-12,51; 9,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 7,89</t>
+          <t>37,34; 55,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 8,04</t>
+          <t>31,27; 44,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 4,52</t>
+          <t>-12,32; 1,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,26</t>
+          <t>25,29; 40,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37,39; 49,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 2,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32,96; 46,35</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,01%</t>
+          <t>468,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>356,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>74,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>66,52%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>141,74%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-6,29%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>132,54%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 36,44</t>
+          <t>298,02; 706,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 72,29</t>
+          <t>-18,61; 17,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 16,62</t>
+          <t>213,53; 585,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 17,83</t>
+          <t>57,78; 96,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 15,34</t>
+          <t>-13,61; 1,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 14,72</t>
+          <t>46,31; 92,57</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>110,41; 177,57</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-14,56; 2,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>97,55; 171,85</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>40,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>43,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>21,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>18,38</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30,73</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,79</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 12,59</t>
+          <t>30,43; 49,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 8,1</t>
+          <t>-10,95; 8,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 7,76</t>
+          <t>34,73; 51,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 12,63</t>
+          <t>14,55; 27,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 7,57</t>
+          <t>-6,48; 6,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 6,0</t>
+          <t>10,73; 26,88</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24,48; 35,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 5,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25,2; 37,84</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>173,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>228,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>71,54%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>77,66%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 80,88</t>
+          <t>104,35; 261,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 54,12</t>
+          <t>-15,58; 14,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 13,57</t>
+          <t>136,52; 358,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 22,47</t>
+          <t>21,98; 48,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 20,1</t>
+          <t>-7,58; 8,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 15,75</t>
+          <t>15,48; 45,4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>52,87; 90,16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-9,1; 7,54</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>56,48; 103,51</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>38,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>39,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>16,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>22,47</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>27,42</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>29,98</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 7,7</t>
+          <t>29,55; 46,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 10,62</t>
+          <t>-7,69; 13,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 14,69</t>
+          <t>29,84; 47,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 11,11</t>
+          <t>8,22; 24,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 10,8</t>
+          <t>-6,86; 8,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 10,88</t>
+          <t>14,09; 30,36</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>21,21; 34,05</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 8,45</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 35,99</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>230,94%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>198,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>36,37%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>64,51%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>71,8%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,09; 63,12</t>
+          <t>128,29; 361,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 78,13</t>
+          <t>-12,65; 27,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 26,45</t>
+          <t>121,42; 327,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 19,82</t>
+          <t>11,35; 38,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 31,11</t>
+          <t>-7,93; 10,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 30,89</t>
+          <t>21,27; 54,29</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>46,16; 86,44</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 12,58</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>49,29; 95,4</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>40,62</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,47</t>
+          <t>36,81</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>12,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24,66</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>16,72</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 3,13</t>
+          <t>31,35; 50,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 11,41</t>
+          <t>-9,18; 15,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-21,03; -1,24</t>
+          <t>26,65; 46,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 17,49</t>
+          <t>1,57; 24,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,89; -1,18</t>
+          <t>-6,86; 18,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 13,16</t>
+          <t>-10,27; 14,64</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>16,97; 31,87</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 13,04</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 25,36</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-27,4%</t>
+          <t>388,22%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-18,88%</t>
+          <t>203,33%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>81,19%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>38,84%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 29,74</t>
+          <t>210,11; 713,06</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 96,44</t>
+          <t>-15,38; 35,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -2,42</t>
+          <t>103,97; 347,71</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 33,39</t>
+          <t>3,7; 59,46</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,03; -2,9</t>
+          <t>-10,56; 35,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 37,46</t>
+          <t>-15,12; 27,25</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>51,39; 115,03</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 25,7</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>17,41; 67,08</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>40,47</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>38,88</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>23,96</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>20,43</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>32,01</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>29,64</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,68</t>
+          <t>36,33; 44,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,06</t>
+          <t>-5,56; 4,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,64</t>
+          <t>34,49; 42,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,49</t>
+          <t>19,54; 27,89</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,74</t>
+          <t>-6,47; 2,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,9</t>
+          <t>16,17; 24,49</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>29,14; 35,1</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 1,84</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>26,3; 32,64</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>311,5%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>272,34%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>41,45%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>103,62%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 13,0</t>
+          <t>244,94; 382,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 23,46</t>
+          <t>-9,82; 9,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 5,65</t>
+          <t>207,64; 336,17</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 9,64</t>
+          <t>39,07; 60,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 5,67</t>
+          <t>-8,78; 3,08</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 9,39</t>
+          <t>31,16; 52,78</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>90,11; 118,14</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 3,02</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>78,24; 108,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
